--- a/HLG1 cmd.xlsx
+++ b/HLG1 cmd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\New folder\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3047982F-A5A3-4C97-82B1-FA56AFEE049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69648537-7C30-417F-A65B-6EF67A8282AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F779B33-8B02-406A-A793-6EA0073664EE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="173">
-  <si>
-    <t>READ Commands (get_*)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="187">
   <si>
     <t>Method</t>
   </si>
@@ -127,9 +124,6 @@
     <t>Read sampling interval</t>
   </si>
   <si>
-    <t>200µs/500µs/1ms/2ms intervals</t>
-  </si>
-  <si>
     <t>Format 1</t>
   </si>
   <si>
@@ -773,9 +767,6 @@
   </si>
   <si>
     <t>Read all outputs</t>
-  </si>
-  <si>
-    <t>WRITE Commands (set_*)</t>
   </si>
   <si>
     <t>set_buffering_mode()</t>
@@ -968,9 +959,6 @@
     <t>Triggering</t>
   </si>
   <si>
-    <t>Special</t>
-  </si>
-  <si>
     <t>Buffer state</t>
   </si>
   <si>
@@ -999,13 +987,104 @@
   </si>
   <si>
     <t>Description1</t>
+  </si>
+  <si>
+    <t>READ Commands (get_*)  | WRITE Commands (set_*)</t>
+  </si>
+  <si>
+    <t>Parameter number</t>
+  </si>
+  <si>
+    <t>WSP</t>
+  </si>
+  <si>
+    <t>WFB</t>
+  </si>
+  <si>
+    <t>set_shutter_time()</t>
+  </si>
+  <si>
+    <t>set_sampling_cycle()</t>
+  </si>
+  <si>
+    <t>Read-only</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>0 = 200 [μs], 1 = 500 [μs], 2 = 1 [ms], 3 = 2 [ms]</t>
+  </si>
+  <si>
+    <t>Set sampling interval</t>
+  </si>
+  <si>
+    <r>
+      <t>+00000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>+00032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Set shutter time setting</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>!Special</t>
+  </si>
+  <si>
+    <t>RLB</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>read_data_dif()</t>
+  </si>
+  <si>
+    <t>read_data_bin()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,8 +1130,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,34 +1187,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,972 +1535,1277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0618D9-48F0-4DB7-9EEE-547818EC295E}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="67.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="2">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="2">
+        <v>26</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="2">
+        <v>27</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="2">
+        <v>28</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2">
+        <v>29</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="2">
+        <v>30</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="C37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2">
+        <v>32</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="J37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="2">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="E41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2" xr:uid="{5D0618D9-48F0-4DB7-9EEE-547818EC295E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I37">
-    <sortCondition ref="D3:D37"/>
-    <sortCondition ref="C3:C37"/>
-    <sortCondition ref="B3:B37"/>
+  <autoFilter ref="A2:K41" xr:uid="{5D0618D9-48F0-4DB7-9EEE-547818EC295E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K41">
+      <sortCondition ref="F3:F41"/>
+      <sortCondition ref="E3:E41"/>
+      <sortCondition ref="B3:B41"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K41">
+    <sortCondition ref="F3:F41"/>
+    <sortCondition ref="E3:E41"/>
+    <sortCondition ref="B3:B41"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>